--- a/biology/Botanique/Peridiscaceae/Peridiscaceae.xlsx
+++ b/biology/Botanique/Peridiscaceae/Peridiscaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Peridiscaceae regroupe des plantes dicotylédones ; elle comprend une dizaine d'espèces réparties en 2 à 4 genres.
 Ce sont des arbres, à grandes feuilles parcheminées, alternes, entières, des régions tropicales d'Amérique du Sud.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre-type Peridiscus de Peri, autour, et disco, disque, en référence à la forme des fruits.
 </t>
@@ -543,12 +557,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire taxinomique des péridiscacées est complexe, bien que résolue par analyses phylogénétiques moléculaires.
-La classification phylogénétique APG (1998)[1] n'assignait cette famille à aucun ordre.
-La classification phylogénétique APG II (2003)[2] assigne cette famille à l'ordre des Malpighiales.
-L'Angiosperm Phylogeny Website et la classification phylogénétique APG III (2009)[3] la situent dans l'ordre des Saxifragales.
+La classification phylogénétique APG (1998) n'assignait cette famille à aucun ordre.
+La classification phylogénétique APG II (2003) assigne cette famille à l'ordre des Malpighiales.
+L'Angiosperm Phylogeny Website et la classification phylogénétique APG III (2009) la situent dans l'ordre des Saxifragales.
 </t>
         </is>
       </c>
@@ -577,15 +593,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG III (2009)[3] inclut dans cette famille le genre Medusandra, précédemment placé dans la famille Medusandraceae.
-Selon NCBI  (28 avr. 2010)[4] (Plus conforme à APGIII puisqu'il incorpore le genre Medusandra anciennement dans Medusandraceae) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille le genre Medusandra, précédemment placé dans la famille Medusandraceae.
+Selon NCBI  (28 avr. 2010) (Plus conforme à APGIII puisqu'il incorpore le genre Medusandra anciennement dans Medusandraceae) :
 genre Medusandra (anciennement dans Medusandraceae)
 genre Peridiscus (en)
 genre Soyauxia
 genre Whittonia
-Selon Angiosperm Phylogeny Website                        (28 avr. 2010)[5] et DELTA Angio           (28 avr. 2010)[6] :
+Selon Angiosperm Phylogeny Website                        (28 avr. 2010) et DELTA Angio           (28 avr. 2010) :
 genre Peridiscus
 genre Whittonia</t>
         </is>
@@ -615,9 +633,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 avr. 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 avr. 2010) :
 genre Medusandra
 Medusandra richardsiana
 genre Peridiscus
